--- a/database/industries/nasaji/netrin/income/quarterly/rial_cumulative.xlsx
+++ b/database/industries/nasaji/netrin/income/quarterly/rial_cumulative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\nasaji\netrin\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\nasaji\netrin\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9157AF0D-86D7-4089-A8B4-D0EC589F30AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D73FF31-98B7-4B4D-B778-8D4FFEAD1137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>6 ماهه منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>9 ماهه منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>9 ماهه منتهی به 1401/09</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-08-30 (4)</t>
-  </si>
-  <si>
     <t>1400-10-29 (2)</t>
   </si>
   <si>
@@ -88,7 +85,7 @@
     <t>1401-10-28 (2)</t>
   </si>
   <si>
-    <t>1401-10-28 (6)</t>
+    <t>1402-02-27 (7)</t>
   </si>
   <si>
     <t>1401-04-30</t>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>1401-10-28</t>
+  </si>
+  <si>
+    <t>1402-02-27</t>
   </si>
   <si>
     <t>فروش</t>
@@ -619,18 +619,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="9" width="28" customWidth="1"/>
-    <col min="10" max="10" width="29" customWidth="1"/>
-    <col min="11" max="13" width="28" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="8" width="28" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="10" max="12" width="28" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -644,7 +645,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -660,7 +661,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -676,7 +677,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -690,7 +691,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -706,7 +707,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -722,7 +723,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -736,7 +737,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -772,7 +773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -808,7 +809,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -822,151 +823,151 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>452223</v>
+        <v>734347</v>
       </c>
       <c r="E11" s="13">
-        <v>734347</v>
+        <v>1008240</v>
       </c>
       <c r="F11" s="13">
-        <v>1008240</v>
+        <v>217182</v>
       </c>
       <c r="G11" s="13">
-        <v>217182</v>
+        <v>549295</v>
       </c>
       <c r="H11" s="13">
-        <v>549295</v>
+        <v>1019462</v>
       </c>
       <c r="I11" s="13">
-        <v>1019462</v>
+        <v>1632271</v>
       </c>
       <c r="J11" s="13">
-        <v>1632271</v>
+        <v>590461</v>
       </c>
       <c r="K11" s="13">
-        <v>590461</v>
+        <v>1370075</v>
       </c>
       <c r="L11" s="13">
-        <v>1370075</v>
+        <v>2131043</v>
       </c>
       <c r="M11" s="13">
-        <v>2131043</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2999738</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-358907</v>
+        <v>-557701</v>
       </c>
       <c r="E12" s="11">
-        <v>-557701</v>
+        <v>-747453</v>
       </c>
       <c r="F12" s="11">
-        <v>-747453</v>
+        <v>-139110</v>
       </c>
       <c r="G12" s="11">
-        <v>-139110</v>
+        <v>-372590</v>
       </c>
       <c r="H12" s="11">
-        <v>-372590</v>
+        <v>-719151</v>
       </c>
       <c r="I12" s="11">
-        <v>-719151</v>
+        <v>-1139548</v>
       </c>
       <c r="J12" s="11">
-        <v>-1139548</v>
+        <v>-460541</v>
       </c>
       <c r="K12" s="11">
-        <v>-460541</v>
+        <v>-1110304</v>
       </c>
       <c r="L12" s="11">
-        <v>-1110304</v>
+        <v>-1746984</v>
       </c>
       <c r="M12" s="11">
-        <v>-1746984</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-2387738</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>93316</v>
+        <v>176646</v>
       </c>
       <c r="E13" s="15">
-        <v>176646</v>
+        <v>260787</v>
       </c>
       <c r="F13" s="15">
-        <v>260787</v>
+        <v>78072</v>
       </c>
       <c r="G13" s="15">
-        <v>78072</v>
+        <v>176705</v>
       </c>
       <c r="H13" s="15">
-        <v>176705</v>
+        <v>300311</v>
       </c>
       <c r="I13" s="15">
-        <v>300311</v>
+        <v>492723</v>
       </c>
       <c r="J13" s="15">
-        <v>492723</v>
+        <v>129920</v>
       </c>
       <c r="K13" s="15">
-        <v>129920</v>
+        <v>259771</v>
       </c>
       <c r="L13" s="15">
-        <v>259771</v>
+        <v>384059</v>
       </c>
       <c r="M13" s="15">
-        <v>384059</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>612000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-16569</v>
+        <v>-24115</v>
       </c>
       <c r="E14" s="11">
-        <v>-24115</v>
+        <v>-33021</v>
       </c>
       <c r="F14" s="11">
-        <v>-33021</v>
+        <v>-14060</v>
       </c>
       <c r="G14" s="11">
-        <v>-14060</v>
+        <v>-30516</v>
       </c>
       <c r="H14" s="11">
-        <v>-30516</v>
+        <v>-42490</v>
       </c>
       <c r="I14" s="11">
-        <v>-42490</v>
+        <v>-60712</v>
       </c>
       <c r="J14" s="11">
-        <v>-60712</v>
+        <v>-14340</v>
       </c>
       <c r="K14" s="11">
-        <v>-14340</v>
+        <v>-37350</v>
       </c>
       <c r="L14" s="11">
-        <v>-37350</v>
+        <v>-60526</v>
       </c>
       <c r="M14" s="11">
-        <v>-60526</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-95353</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1002,259 +1003,259 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>789</v>
+        <v>4150</v>
       </c>
       <c r="E16" s="11">
-        <v>4150</v>
+        <v>4265</v>
       </c>
       <c r="F16" s="11">
-        <v>4265</v>
+        <v>999</v>
       </c>
       <c r="G16" s="11">
-        <v>999</v>
+        <v>4172</v>
       </c>
       <c r="H16" s="11">
-        <v>4172</v>
+        <v>2272</v>
       </c>
       <c r="I16" s="11">
-        <v>2272</v>
+        <v>3929</v>
       </c>
       <c r="J16" s="11">
-        <v>3929</v>
+        <v>2795</v>
       </c>
       <c r="K16" s="11">
-        <v>2795</v>
+        <v>6124</v>
       </c>
       <c r="L16" s="11">
-        <v>6124</v>
+        <v>8788</v>
       </c>
       <c r="M16" s="11">
-        <v>8788</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>34059</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>77536</v>
+        <v>156681</v>
       </c>
       <c r="E17" s="15">
-        <v>156681</v>
+        <v>232031</v>
       </c>
       <c r="F17" s="15">
-        <v>232031</v>
+        <v>65011</v>
       </c>
       <c r="G17" s="15">
-        <v>65011</v>
+        <v>150361</v>
       </c>
       <c r="H17" s="15">
-        <v>150361</v>
+        <v>260093</v>
       </c>
       <c r="I17" s="15">
-        <v>260093</v>
+        <v>435940</v>
       </c>
       <c r="J17" s="15">
-        <v>435940</v>
+        <v>118375</v>
       </c>
       <c r="K17" s="15">
-        <v>118375</v>
+        <v>228545</v>
       </c>
       <c r="L17" s="15">
-        <v>228545</v>
+        <v>332321</v>
       </c>
       <c r="M17" s="15">
-        <v>332321</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>550706</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-14894</v>
+        <v>-28028</v>
       </c>
       <c r="E18" s="11">
-        <v>-28028</v>
+        <v>-44626</v>
       </c>
       <c r="F18" s="11">
-        <v>-44626</v>
+        <v>-28433</v>
       </c>
       <c r="G18" s="11">
-        <v>-28433</v>
+        <v>-50069</v>
       </c>
       <c r="H18" s="11">
-        <v>-50069</v>
+        <v>-85677</v>
       </c>
       <c r="I18" s="11">
-        <v>-85677</v>
+        <v>-168851</v>
       </c>
       <c r="J18" s="11">
-        <v>-168851</v>
+        <v>-30208</v>
       </c>
       <c r="K18" s="11">
-        <v>-30208</v>
+        <v>-76790</v>
       </c>
       <c r="L18" s="11">
-        <v>-76790</v>
+        <v>-130613</v>
       </c>
       <c r="M18" s="11">
-        <v>-130613</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-262925</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>549</v>
+        <v>3803</v>
       </c>
       <c r="E19" s="13">
-        <v>3803</v>
+        <v>1477</v>
       </c>
       <c r="F19" s="13">
-        <v>1477</v>
+        <v>671</v>
       </c>
       <c r="G19" s="13">
-        <v>671</v>
+        <v>-1196</v>
       </c>
       <c r="H19" s="13">
-        <v>-1196</v>
+        <v>-34485</v>
       </c>
       <c r="I19" s="13">
-        <v>-34485</v>
+        <v>14983</v>
       </c>
       <c r="J19" s="13">
-        <v>14983</v>
+        <v>6848</v>
       </c>
       <c r="K19" s="13">
-        <v>6848</v>
+        <v>14266</v>
       </c>
       <c r="L19" s="13">
-        <v>14266</v>
+        <v>23603</v>
       </c>
       <c r="M19" s="13">
-        <v>23603</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>29352</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>63191</v>
+        <v>132456</v>
       </c>
       <c r="E20" s="17">
-        <v>132456</v>
+        <v>188882</v>
       </c>
       <c r="F20" s="17">
-        <v>188882</v>
+        <v>37249</v>
       </c>
       <c r="G20" s="17">
-        <v>37249</v>
+        <v>99096</v>
       </c>
       <c r="H20" s="17">
-        <v>99096</v>
+        <v>139931</v>
       </c>
       <c r="I20" s="17">
-        <v>139931</v>
+        <v>282072</v>
       </c>
       <c r="J20" s="17">
-        <v>282072</v>
+        <v>95015</v>
       </c>
       <c r="K20" s="17">
-        <v>95015</v>
+        <v>166021</v>
       </c>
       <c r="L20" s="17">
-        <v>166021</v>
+        <v>225311</v>
       </c>
       <c r="M20" s="17">
-        <v>225311</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>317133</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-10976</v>
+        <v>-22514</v>
       </c>
       <c r="E21" s="13">
-        <v>-22514</v>
+        <v>-32796</v>
       </c>
       <c r="F21" s="13">
-        <v>-32796</v>
+        <v>-6401</v>
       </c>
       <c r="G21" s="13">
-        <v>-6401</v>
+        <v>-19316</v>
       </c>
       <c r="H21" s="13">
-        <v>-19316</v>
+        <v>-23455</v>
       </c>
       <c r="I21" s="13">
-        <v>-23455</v>
+        <v>-57039</v>
       </c>
       <c r="J21" s="13">
-        <v>-57039</v>
+        <v>-13575</v>
       </c>
       <c r="K21" s="13">
-        <v>-13575</v>
+        <v>-32436</v>
       </c>
       <c r="L21" s="13">
-        <v>-32436</v>
+        <v>-33450</v>
       </c>
       <c r="M21" s="13">
-        <v>-33450</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-40052</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>52215</v>
+        <v>109942</v>
       </c>
       <c r="E22" s="17">
-        <v>109942</v>
+        <v>156086</v>
       </c>
       <c r="F22" s="17">
-        <v>156086</v>
+        <v>30848</v>
       </c>
       <c r="G22" s="17">
-        <v>30848</v>
+        <v>79780</v>
       </c>
       <c r="H22" s="17">
-        <v>79780</v>
+        <v>116476</v>
       </c>
       <c r="I22" s="17">
-        <v>116476</v>
+        <v>225033</v>
       </c>
       <c r="J22" s="17">
-        <v>225033</v>
+        <v>81440</v>
       </c>
       <c r="K22" s="17">
-        <v>81440</v>
+        <v>133585</v>
       </c>
       <c r="L22" s="17">
-        <v>133585</v>
+        <v>191861</v>
       </c>
       <c r="M22" s="17">
-        <v>191861</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>277081</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>38</v>
       </c>
@@ -1290,79 +1291,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>52215</v>
+        <v>109942</v>
       </c>
       <c r="E24" s="17">
-        <v>109942</v>
+        <v>156086</v>
       </c>
       <c r="F24" s="17">
-        <v>156086</v>
+        <v>30848</v>
       </c>
       <c r="G24" s="17">
-        <v>30848</v>
+        <v>79780</v>
       </c>
       <c r="H24" s="17">
-        <v>79780</v>
+        <v>116476</v>
       </c>
       <c r="I24" s="17">
-        <v>116476</v>
+        <v>225033</v>
       </c>
       <c r="J24" s="17">
-        <v>225033</v>
+        <v>81440</v>
       </c>
       <c r="K24" s="17">
-        <v>81440</v>
+        <v>133585</v>
       </c>
       <c r="L24" s="17">
-        <v>133585</v>
+        <v>191861</v>
       </c>
       <c r="M24" s="17">
-        <v>191861</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>277081</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="E25" s="13">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="F25" s="13">
-        <v>201</v>
+        <v>40</v>
       </c>
       <c r="G25" s="13">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="H25" s="13">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="I25" s="13">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="J25" s="13">
-        <v>290</v>
+        <v>105</v>
       </c>
       <c r="K25" s="13">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="L25" s="13">
-        <v>172</v>
+        <v>248</v>
       </c>
       <c r="M25" s="13">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>41</v>
       </c>
@@ -1398,43 +1399,43 @@
         <v>775000</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="E27" s="13">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="F27" s="13">
-        <v>201</v>
+        <v>40</v>
       </c>
       <c r="G27" s="13">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="H27" s="13">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="I27" s="13">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="J27" s="13">
-        <v>290</v>
+        <v>105</v>
       </c>
       <c r="K27" s="13">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="L27" s="13">
-        <v>172</v>
+        <v>248</v>
       </c>
       <c r="M27" s="13">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
